--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Len\Documents\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8C55E4-46BD-4761-950A-A2B3C44D62D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC99B717-10EC-418D-9FFC-4F648571E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1166,17 +1166,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1500,7 +1490,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1619,9 +1609,12 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="E3">
         <f t="shared" ref="E3:E31" si="0">MAX(0,B3-C3-D3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1658,9 +1651,12 @@
       <c r="B4">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1697,9 +1693,12 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1736,9 +1735,12 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -1985,9 +1987,12 @@
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -2024,9 +2029,12 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>115</v>
@@ -2144,9 +2152,12 @@
       <c r="B17">
         <v>8</v>
       </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -2222,9 +2233,12 @@
       <c r="B19">
         <v>6</v>
       </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
         <v>129</v>
@@ -2261,9 +2275,12 @@
       <c r="B20">
         <v>2</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>131</v>
@@ -2300,6 +2317,9 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2378,9 +2398,12 @@
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -2417,9 +2440,12 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>139</v>
@@ -2456,9 +2482,12 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
         <v>123</v>
@@ -2705,9 +2734,12 @@
       <c r="B30">
         <v>1</v>
       </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>179</v>
@@ -2784,7 +2816,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Len\Documents\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC99B717-10EC-418D-9FFC-4F648571E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400AECE5-CDED-4262-8324-3102A9E74B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1570,9 +1570,12 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="E2">
         <f>MAX(0,B2-C2-D2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1777,9 +1780,12 @@
       <c r="B7">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -1795,9 +1801,12 @@
       <c r="B8">
         <v>2</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1840,9 +1849,12 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -1879,9 +1891,12 @@
       <c r="B10">
         <v>5</v>
       </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -1933,9 +1948,12 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -1969,9 +1987,12 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>103</v>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Len\Documents\Dev\git\Synth-priv\modules\VCF-4P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400AECE5-CDED-4262-8324-3102A9E74B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DF2ABE-09BE-4986-817F-4DA6B03F2F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="211">
   <si>
     <t>Ref</t>
   </si>
@@ -223,18 +223,12 @@
     <t>https://www.mouser.ca/ProductDetail/Panasonic/ECE-A1EN100UI?qs=0h1gzos03f36mGOUyzNXaA%3D%3D</t>
   </si>
   <si>
-    <t>H5 H7 H8 H10</t>
-  </si>
-  <si>
     <t>M3x0.50x6</t>
   </si>
   <si>
     <t>Machine screw, M3x0.50x6</t>
   </si>
   <si>
-    <t>H6 H9</t>
-  </si>
-  <si>
     <t>11mm_M3x0.50</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>https://www.mouser.ca/ProductDetail/Wurth-Elektronik/970110321?qs=wr8lucFkNMUs0IWSCWTB3w%3D%3D</t>
   </si>
   <si>
-    <t>H11</t>
-  </si>
-  <si>
     <t>Jumper_2</t>
   </si>
   <si>
@@ -286,9 +277,6 @@
     <t>https://www.adafruit.com/product/3525</t>
   </si>
   <si>
-    <t>J1 J3 J4 J5 J7</t>
-  </si>
-  <si>
     <t>WQP-PJ398</t>
   </si>
   <si>
@@ -478,9 +466,6 @@
     <t>https://www.mouser.ca/ProductDetail/Vishay-Dale/CCF071K00JKE36?qs=sGAEpiMZZMsPqMdJzcrNwqw41JD0NFylHV1MADcQnpo%3D</t>
   </si>
   <si>
-    <t>RV1 RV6</t>
-  </si>
-  <si>
     <t>LIN</t>
   </si>
   <si>
@@ -514,15 +499,9 @@
     <t>https://synthcube.com/cart/alpha-9mm-potentiometer-right-angle-pcb-mount-6-35mm-round-shaft</t>
   </si>
   <si>
-    <t>RV3</t>
-  </si>
-  <si>
     <t>LOG</t>
   </si>
   <si>
-    <t>RV4 RV8</t>
-  </si>
-  <si>
     <t>http://www.song-huei.com/proimages//eng/pdfimages/R0904N.pdf</t>
   </si>
   <si>
@@ -635,6 +614,57 @@
   </si>
   <si>
     <t>Need</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Delptronics_MCS_10HP</t>
+  </si>
+  <si>
+    <t>PCB &amp; panel kit</t>
+  </si>
+  <si>
+    <t>Delptronics Module Construction Set - 10HP PCB &amp; panel kit</t>
+  </si>
+  <si>
+    <t>https://delptronics.com/module-construction-set.php</t>
+  </si>
+  <si>
+    <t>Delptronics</t>
+  </si>
+  <si>
+    <t>synthCube</t>
+  </si>
+  <si>
+    <t>DELPMCSMSTR</t>
+  </si>
+  <si>
+    <t>https://synthcube.com/cart/delptronics-module-construction-set</t>
+  </si>
+  <si>
+    <t>https://modularaddict.com/module-construction-set-eurorack-prototype-development-platform-delptronics</t>
+  </si>
+  <si>
+    <t>H3 H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>J1 J3 J5 J7 J8</t>
+  </si>
+  <si>
+    <t>RV1 RV7</t>
+  </si>
+  <si>
+    <t>RV2 RV8</t>
+  </si>
+  <si>
+    <t>RV4</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1196,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1487,18 +1527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="4.3984375" customWidth="1"/>
+    <col min="2" max="5" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1506,13 +1546,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1563,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1605,7 +1645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E31" si="0">MAX(0,B3-C3-D3)</f>
+        <f t="shared" ref="E3:E32" si="0">MAX(0,B3-C3-D3)</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -1647,7 +1687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1689,7 +1729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1731,7 +1771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1773,216 +1813,228 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>MAX(0,B7-C7-D7)</f>
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7">
+        <v>3525</v>
+      </c>
+      <c r="R7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>MAX(0,B8-C8-D8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M8" t="s">
+        <v>200</v>
+      </c>
+      <c r="O8" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>202</v>
+      </c>
+      <c r="R8" t="s">
+        <v>203</v>
+      </c>
+      <c r="S8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9">
-        <v>3525</v>
-      </c>
-      <c r="R9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
-      </c>
-      <c r="S10" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10">
-        <v>4031</v>
-      </c>
-      <c r="U10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11">
-        <v>61201621621</v>
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11">
+        <v>4031</v>
+      </c>
+      <c r="U11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1995,15 +2047,33 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>61201621621</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2016,36 +2086,15 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" t="s">
-        <v>112</v>
-      </c>
-      <c r="O13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2058,78 +2107,78 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
         <v>107</v>
-      </c>
-      <c r="I14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" t="s">
-        <v>111</v>
       </c>
       <c r="M14" t="s">
         <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s">
         <v>107</v>
-      </c>
-      <c r="H15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" t="s">
-        <v>119</v>
       </c>
       <c r="M15" t="s">
         <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="O15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2139,324 +2188,324 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M16" t="s">
         <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" t="s">
         <v>107</v>
-      </c>
-      <c r="I17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" t="s">
-        <v>111</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s">
         <v>107</v>
-      </c>
-      <c r="I18" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" t="s">
-        <v>111</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" t="s">
         <v>107</v>
-      </c>
-      <c r="I19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" t="s">
-        <v>111</v>
       </c>
       <c r="M19" t="s">
         <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s">
         <v>107</v>
-      </c>
-      <c r="I20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" t="s">
-        <v>111</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s">
         <v>107</v>
-      </c>
-      <c r="I21" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" t="s">
-        <v>111</v>
       </c>
       <c r="M21" t="s">
         <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B22">
         <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" t="s">
         <v>107</v>
-      </c>
-      <c r="I22" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" t="s">
-        <v>111</v>
       </c>
       <c r="M22" t="s">
         <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
         <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
         <v>107</v>
-      </c>
-      <c r="I23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" t="s">
-        <v>111</v>
       </c>
       <c r="M23" t="s">
         <v>35</v>
       </c>
       <c r="N23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2469,36 +2518,36 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" t="s">
         <v>107</v>
-      </c>
-      <c r="I24" t="s">
-        <v>108</v>
-      </c>
-      <c r="J24" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" t="s">
-        <v>111</v>
       </c>
       <c r="M24" t="s">
         <v>35</v>
       </c>
       <c r="N24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2511,332 +2560,374 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="O25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27">
         <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" t="s">
-        <v>149</v>
-      </c>
-      <c r="I26" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" t="s">
-        <v>151</v>
-      </c>
-      <c r="K26" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" t="s">
-        <v>154</v>
-      </c>
-      <c r="O26" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>156</v>
-      </c>
-      <c r="R26" t="s">
-        <v>157</v>
-      </c>
-      <c r="S26" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" t="s">
-        <v>158</v>
-      </c>
-      <c r="U26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s">
         <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S27" t="s">
         <v>24</v>
       </c>
       <c r="T27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="E28">
+        <f>MAX(0,B28-C28-D28)</f>
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" t="s">
+        <v>158</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
+        <v>159</v>
+      </c>
+      <c r="O28" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>161</v>
+      </c>
+      <c r="R28" t="s">
+        <v>162</v>
+      </c>
+      <c r="S28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" t="s">
+        <v>153</v>
+      </c>
+      <c r="U28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" t="s">
+        <v>148</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" t="s">
+        <v>150</v>
+      </c>
+      <c r="P29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>151</v>
+      </c>
+      <c r="R29" t="s">
+        <v>152</v>
+      </c>
+      <c r="S29" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" t="s">
+        <v>153</v>
+      </c>
+      <c r="U29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="F30" t="s">
         <v>164</v>
       </c>
-      <c r="L28" t="s">
+      <c r="I30" t="s">
         <v>165</v>
       </c>
-      <c r="M28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="J30" t="s">
         <v>166</v>
       </c>
-      <c r="O28" t="s">
+      <c r="K30" t="s">
         <v>167</v>
       </c>
-      <c r="P28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="L30" t="s">
         <v>168</v>
       </c>
-      <c r="R28" t="s">
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" t="s">
         <v>169</v>
       </c>
-      <c r="S28" t="s">
-        <v>24</v>
-      </c>
-      <c r="T28" t="s">
-        <v>158</v>
-      </c>
-      <c r="U28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="O30" t="s">
         <v>170</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>171</v>
       </c>
-      <c r="I29" t="s">
-        <v>172</v>
-      </c>
-      <c r="J29" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" t="s">
-        <v>174</v>
-      </c>
-      <c r="L29" t="s">
-        <v>175</v>
-      </c>
-      <c r="M29" t="s">
-        <v>35</v>
-      </c>
-      <c r="N29" t="s">
-        <v>176</v>
-      </c>
-      <c r="O29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" t="s">
+        <v>176</v>
+      </c>
+      <c r="L31" t="s">
+        <v>177</v>
+      </c>
+      <c r="M31" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" t="s">
         <v>179</v>
       </c>
-      <c r="H30" t="s">
+      <c r="O31" t="s">
         <v>180</v>
       </c>
-      <c r="I30" t="s">
+      <c r="P31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" t="s">
         <v>181</v>
       </c>
-      <c r="J30" t="s">
+      <c r="R31" t="s">
         <v>182</v>
       </c>
-      <c r="K30" t="s">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>183</v>
       </c>
-      <c r="L30" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>184</v>
       </c>
-      <c r="M30" t="s">
+      <c r="I32" t="s">
         <v>185</v>
       </c>
-      <c r="N30" t="s">
+      <c r="J32" t="s">
         <v>186</v>
       </c>
-      <c r="O30" t="s">
+      <c r="K32" t="s">
         <v>187</v>
       </c>
-      <c r="P30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="L32" t="s">
         <v>188</v>
       </c>
-      <c r="R30" t="s">
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="O32" t="s">
         <v>190</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>191</v>
-      </c>
-      <c r="I31" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" t="s">
-        <v>193</v>
-      </c>
-      <c r="K31" t="s">
-        <v>194</v>
-      </c>
-      <c r="L31" t="s">
-        <v>195</v>
-      </c>
-      <c r="M31" t="s">
-        <v>35</v>
-      </c>
-      <c r="N31" t="s">
-        <v>196</v>
-      </c>
-      <c r="O31" t="s">
-        <v>197</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E31">
+  <conditionalFormatting sqref="E2:E32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Len\Documents\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DF2ABE-09BE-4986-817F-4DA6B03F2F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D05E7D-E4D3-4300-B012-E7649E4B7928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
@@ -1196,17 +1196,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1529,16 +1519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="5" width="4.42578125" customWidth="1"/>
+    <col min="2" max="5" width="4.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1645,7 +1635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1687,7 +1677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1729,7 +1719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1771,7 +1761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1813,7 +1803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -1855,7 +1845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -1906,7 +1896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -1927,7 +1917,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -1975,7 +1965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -2032,7 +2022,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2071,7 +2061,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2092,7 +2082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -2134,7 +2124,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2176,7 +2166,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -2218,7 +2208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -2257,7 +2247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -2299,7 +2289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -2338,7 +2328,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -2380,7 +2370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -2422,7 +2412,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -2464,7 +2454,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -2503,7 +2493,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -2545,7 +2535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -2587,7 +2577,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -2632,7 +2622,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -2689,7 +2679,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -2746,7 +2736,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -2803,16 +2793,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>163</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -2839,7 +2832,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -2890,7 +2883,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>183</v>
       </c>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Len\Documents\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D05E7D-E4D3-4300-B012-E7649E4B7928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240497DD-DE7A-443A-9379-AA281757193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2629,9 +2629,12 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>125</v>
@@ -2686,9 +2689,12 @@
       <c r="B28">
         <v>2</v>
       </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
       <c r="E28">
         <f>MAX(0,B28-C28-D28)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>125</v>
@@ -2743,9 +2749,12 @@
       <c r="B29">
         <v>1</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Len\Documents\Dev\git\Synth-priv\modules\VCF-4P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240497DD-DE7A-443A-9379-AA281757193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF813A-F95B-45CF-AD7C-A57B104B2DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
@@ -1519,16 +1519,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="4.3984375" customWidth="1"/>
+    <col min="2" max="5" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>183</v>
       </c>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF813A-F95B-45CF-AD7C-A57B104B2DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281FBB5-1A88-41D1-8F56-490C42CB4AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,9 +2633,12 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>125</v>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281FBB5-1A88-41D1-8F56-490C42CB4AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92BBE19-2FA3-41DE-9920-C3BD921692B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4845" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>https://www.mouser.ca/ProductDetail/Panasonic/EEA-FC1E100?qs=nLJruSqDb94EJwiFQJd4iw%3D%3D</t>
   </si>
   <si>
-    <t>C3 C4 C10 C11</t>
-  </si>
-  <si>
     <t>100N</t>
   </si>
   <si>
@@ -665,6 +662,9 @@
   </si>
   <si>
     <t>RV4</t>
+  </si>
+  <si>
+    <t>C3 C4</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1520,8 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,13 +1537,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1693,36 +1693,36 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
         <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1735,36 +1735,36 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1780,33 +1780,33 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
         <v>61</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1819,36 +1819,36 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
         <v>74</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>75</v>
-      </c>
-      <c r="J7" t="s">
-        <v>76</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
       </c>
       <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
         <v>77</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>78</v>
-      </c>
-      <c r="P7" t="s">
-        <v>79</v>
       </c>
       <c r="Q7">
         <v>3525</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1861,45 +1861,45 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" t="s">
         <v>196</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>197</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>198</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>199</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O8" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" t="s">
         <v>200</v>
       </c>
-      <c r="M8" t="s">
-        <v>200</v>
-      </c>
-      <c r="O8" t="s">
-        <v>199</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>201</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>202</v>
-      </c>
-      <c r="R8" t="s">
-        <v>203</v>
       </c>
       <c r="S8" t="s">
         <v>26</v>
       </c>
       <c r="U8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1912,15 +1912,15 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
         <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1933,42 +1933,42 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
         <v>65</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>68</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" t="s">
         <v>70</v>
-      </c>
-      <c r="O10" t="s">
-        <v>71</v>
       </c>
       <c r="P10" t="s">
         <v>35</v>
       </c>
       <c r="Q10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" t="s">
         <v>72</v>
-      </c>
-      <c r="R10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1981,51 +1981,51 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
         <v>81</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>82</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>83</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>84</v>
-      </c>
-      <c r="L11" t="s">
-        <v>85</v>
       </c>
       <c r="M11" t="s">
         <v>22</v>
       </c>
       <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
         <v>86</v>
-      </c>
-      <c r="O11" t="s">
-        <v>87</v>
       </c>
       <c r="P11" t="s">
         <v>24</v>
       </c>
       <c r="Q11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" t="s">
         <v>88</v>
       </c>
-      <c r="R11" t="s">
-        <v>89</v>
-      </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11">
         <v>4031</v>
       </c>
       <c r="U11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2038,16 +2038,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" t="s">
         <v>92</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>93</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>94</v>
-      </c>
-      <c r="K12" t="s">
-        <v>95</v>
       </c>
       <c r="L12">
         <v>61201621621</v>
@@ -2056,15 +2056,15 @@
         <v>35</v>
       </c>
       <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" t="s">
         <v>96</v>
-      </c>
-      <c r="O12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2077,15 +2077,15 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
         <v>99</v>
-      </c>
-      <c r="I13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2098,36 +2098,36 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>103</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>104</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>105</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>106</v>
-      </c>
-      <c r="L14" t="s">
-        <v>107</v>
       </c>
       <c r="M14" t="s">
         <v>35</v>
       </c>
       <c r="N14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" t="s">
         <v>108</v>
-      </c>
-      <c r="O14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2140,36 +2140,36 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s">
         <v>103</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>104</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>105</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>106</v>
-      </c>
-      <c r="L15" t="s">
-        <v>107</v>
       </c>
       <c r="M15" t="s">
         <v>35</v>
       </c>
       <c r="N15" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" t="s">
         <v>108</v>
-      </c>
-      <c r="O15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2179,39 +2179,39 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
         <v>113</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>103</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" t="s">
         <v>114</v>
-      </c>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" t="s">
-        <v>115</v>
       </c>
       <c r="M16" t="s">
         <v>35</v>
       </c>
       <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
         <v>116</v>
-      </c>
-      <c r="O16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2221,36 +2221,36 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
         <v>103</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>104</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>105</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>106</v>
-      </c>
-      <c r="L17" t="s">
-        <v>107</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
       </c>
       <c r="N17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" t="s">
         <v>108</v>
-      </c>
-      <c r="O17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -2263,36 +2263,36 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
         <v>103</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>104</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>105</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>106</v>
-      </c>
-      <c r="L18" t="s">
-        <v>107</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
       </c>
       <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" t="s">
         <v>108</v>
-      </c>
-      <c r="O18" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -2302,36 +2302,36 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" t="s">
         <v>103</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>104</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>105</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>106</v>
-      </c>
-      <c r="L19" t="s">
-        <v>107</v>
       </c>
       <c r="M19" t="s">
         <v>35</v>
       </c>
       <c r="N19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" t="s">
         <v>108</v>
-      </c>
-      <c r="O19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -2344,36 +2344,36 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" t="s">
         <v>103</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>104</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>105</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>106</v>
-      </c>
-      <c r="L20" t="s">
-        <v>107</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>
       </c>
       <c r="N20" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" t="s">
         <v>108</v>
-      </c>
-      <c r="O20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2386,36 +2386,36 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" t="s">
         <v>103</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>104</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>105</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>106</v>
-      </c>
-      <c r="L21" t="s">
-        <v>107</v>
       </c>
       <c r="M21" t="s">
         <v>35</v>
       </c>
       <c r="N21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" t="s">
         <v>108</v>
-      </c>
-      <c r="O21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2428,36 +2428,36 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" t="s">
         <v>103</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>104</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>105</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>106</v>
-      </c>
-      <c r="L22" t="s">
-        <v>107</v>
       </c>
       <c r="M22" t="s">
         <v>35</v>
       </c>
       <c r="N22" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" t="s">
         <v>108</v>
-      </c>
-      <c r="O22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2467,36 +2467,36 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" t="s">
         <v>103</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>104</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>105</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>106</v>
-      </c>
-      <c r="L23" t="s">
-        <v>107</v>
       </c>
       <c r="M23" t="s">
         <v>35</v>
       </c>
       <c r="N23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" t="s">
         <v>108</v>
-      </c>
-      <c r="O23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2509,36 +2509,36 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" t="s">
         <v>103</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>104</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>105</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>106</v>
-      </c>
-      <c r="L24" t="s">
-        <v>107</v>
       </c>
       <c r="M24" t="s">
         <v>35</v>
       </c>
       <c r="N24" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" t="s">
         <v>108</v>
-      </c>
-      <c r="O24" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2551,36 +2551,36 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" t="s">
         <v>103</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>104</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>105</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>106</v>
-      </c>
-      <c r="L25" t="s">
-        <v>107</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
       </c>
       <c r="N25" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" t="s">
         <v>108</v>
-      </c>
-      <c r="O25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2593,39 +2593,39 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" t="s">
         <v>137</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" t="s">
         <v>138</v>
       </c>
-      <c r="I26" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>139</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>140</v>
-      </c>
-      <c r="L26" t="s">
-        <v>141</v>
       </c>
       <c r="M26" t="s">
         <v>35</v>
       </c>
       <c r="N26" t="s">
+        <v>141</v>
+      </c>
+      <c r="O26" t="s">
         <v>142</v>
-      </c>
-      <c r="O26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2641,54 +2641,54 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" t="s">
         <v>144</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>145</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>146</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>147</v>
-      </c>
-      <c r="L27" t="s">
-        <v>148</v>
       </c>
       <c r="M27" t="s">
         <v>22</v>
       </c>
       <c r="N27" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" t="s">
         <v>149</v>
-      </c>
-      <c r="O27" t="s">
-        <v>150</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
       </c>
       <c r="Q27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R27" t="s">
         <v>151</v>
-      </c>
-      <c r="R27" t="s">
-        <v>152</v>
       </c>
       <c r="S27" t="s">
         <v>24</v>
       </c>
       <c r="T27" t="s">
+        <v>152</v>
+      </c>
+      <c r="U27" t="s">
         <v>153</v>
-      </c>
-      <c r="U27" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2701,54 +2701,54 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" t="s">
         <v>144</v>
       </c>
-      <c r="I28" t="s">
-        <v>145</v>
-      </c>
       <c r="J28" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" t="s">
         <v>156</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>157</v>
-      </c>
-      <c r="L28" t="s">
-        <v>158</v>
       </c>
       <c r="M28" t="s">
         <v>24</v>
       </c>
       <c r="N28" t="s">
+        <v>158</v>
+      </c>
+      <c r="O28" t="s">
         <v>159</v>
-      </c>
-      <c r="O28" t="s">
-        <v>160</v>
       </c>
       <c r="P28" t="s">
         <v>22</v>
       </c>
       <c r="Q28" t="s">
+        <v>160</v>
+      </c>
+      <c r="R28" t="s">
         <v>161</v>
-      </c>
-      <c r="R28" t="s">
-        <v>162</v>
       </c>
       <c r="S28" t="s">
         <v>24</v>
       </c>
       <c r="T28" t="s">
+        <v>152</v>
+      </c>
+      <c r="U28" t="s">
         <v>153</v>
-      </c>
-      <c r="U28" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2761,54 +2761,54 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" t="s">
         <v>145</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>146</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>147</v>
-      </c>
-      <c r="L29" t="s">
-        <v>148</v>
       </c>
       <c r="M29" t="s">
         <v>22</v>
       </c>
       <c r="N29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O29" t="s">
         <v>149</v>
-      </c>
-      <c r="O29" t="s">
-        <v>150</v>
       </c>
       <c r="P29" t="s">
         <v>35</v>
       </c>
       <c r="Q29" t="s">
+        <v>150</v>
+      </c>
+      <c r="R29" t="s">
         <v>151</v>
-      </c>
-      <c r="R29" t="s">
-        <v>152</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
       </c>
       <c r="T29" t="s">
+        <v>152</v>
+      </c>
+      <c r="U29" t="s">
         <v>153</v>
-      </c>
-      <c r="U29" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2821,33 +2821,33 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" t="s">
         <v>164</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>165</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>166</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>167</v>
-      </c>
-      <c r="L30" t="s">
-        <v>168</v>
       </c>
       <c r="M30" t="s">
         <v>35</v>
       </c>
       <c r="N30" t="s">
+        <v>168</v>
+      </c>
+      <c r="O30" t="s">
         <v>169</v>
-      </c>
-      <c r="O30" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2860,45 +2860,45 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" t="s">
         <v>172</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>173</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>174</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>175</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>176</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>177</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>178</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>179</v>
-      </c>
-      <c r="O31" t="s">
-        <v>180</v>
       </c>
       <c r="P31" t="s">
         <v>22</v>
       </c>
       <c r="Q31" t="s">
+        <v>180</v>
+      </c>
+      <c r="R31" t="s">
         <v>181</v>
-      </c>
-      <c r="R31" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2908,28 +2908,28 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" t="s">
         <v>184</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>185</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>186</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>187</v>
-      </c>
-      <c r="L32" t="s">
-        <v>188</v>
       </c>
       <c r="M32" t="s">
         <v>35</v>
       </c>
       <c r="N32" t="s">
+        <v>188</v>
+      </c>
+      <c r="O32" t="s">
         <v>189</v>
-      </c>
-      <c r="O32" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92BBE19-2FA3-41DE-9920-C3BD921692B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95B2F7-491E-43ED-AAD6-810F08B6CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4845" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1520,8 +1520,8 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,9 +2903,12 @@
       <c r="B32">
         <v>1</v>
       </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>183</v>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95B2F7-491E-43ED-AAD6-810F08B6CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B7055F-2CB0-4359-AE0A-AC4B23876178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="2505" windowWidth="19395" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
   <si>
     <t>Ref</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>C3 C4</t>
+  </si>
+  <si>
+    <t>OUT OF DATE!</t>
   </si>
 </sst>
 </file>
@@ -1148,9 +1151,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="14"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1517,11 +1521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,6 +2939,12 @@
         <v>189</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B7055F-2CB0-4359-AE0A-AC4B23876178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{56B42A8A-DB25-4E5C-857A-87D576F35E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2505" windowWidth="19395" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="1395" windowWidth="19395" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="245">
   <si>
     <t>Ref</t>
   </si>
@@ -124,28 +112,34 @@
     <t>10U</t>
   </si>
   <si>
-    <t>25 VDC</t>
+    <t>12 V decoupling</t>
   </si>
   <si>
     <t>Capacitor - Electrolytic - 12 V decoupling</t>
   </si>
   <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDF0000/ABA0000C1209.pdf</t>
+    <t>https://www.mouser.ca/datasheet/2/315/ABA0000C1059-947582.pdf</t>
   </si>
   <si>
     <t>Panasonic</t>
   </si>
   <si>
-    <t>EEA-FC1E100</t>
+    <t>ECE-A1VKS100I</t>
   </si>
   <si>
     <t>Mouser</t>
   </si>
   <si>
-    <t>667-EEA-FC1E100</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Panasonic/EEA-FC1E100?qs=nLJruSqDb94EJwiFQJd4iw%3D%3D</t>
+    <t>667-ECE-A1VKS100I</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/667-ECE-A1VKS100I</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/eurorack-diy-essentials/</t>
+  </si>
+  <si>
+    <t>C3 C4 C5 C6</t>
   </si>
   <si>
     <t>100N</t>
@@ -172,7 +166,28 @@
     <t>https://www.mouser.ca/ProductDetail/810-FG18X7R1H104KNT6</t>
   </si>
   <si>
-    <t>C5 C7 C8 C9</t>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>NPE</t>
+  </si>
+  <si>
+    <t>Capacitor - Non-polarized Electrolytic</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/datasheet/2/315/ABA0000C1053-947510.pdf</t>
+  </si>
+  <si>
+    <t>ECE-A1EN100UI</t>
+  </si>
+  <si>
+    <t>667-ECE-A1EN100UI</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Panasonic/ECE-A1EN100UI?qs=0h1gzos03f36mGOUyzNXaA%3D%3D</t>
+  </si>
+  <si>
+    <t>C8 C9 C10 C11</t>
   </si>
   <si>
     <t>1N</t>
@@ -199,25 +214,31 @@
     <t>https://www.mouser.ca/ProductDetail/?qs=lyRJTFulC0ahcLuVpByxzA%3D%3D</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>NPE</t>
-  </si>
-  <si>
-    <t>Capacitor - Non-polarized Electrolytic</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/datasheet/2/315/ABA0000C1053-947510.pdf</t>
-  </si>
-  <si>
-    <t>ECE-A1EN100UI</t>
-  </si>
-  <si>
-    <t>667-ECE-A1EN100UI</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Panasonic/ECE-A1EN100UI?qs=0h1gzos03f36mGOUyzNXaA%3D%3D</t>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Jumper_2</t>
+  </si>
+  <si>
+    <t>Jumper connector, 2-pin socket</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/datasheet/2/209/KC-301174-1171759.pdf</t>
+  </si>
+  <si>
+    <t>151-8013-E</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Kobiconn/151-8013-E?qs=RC2ne4458IJaOh%2FxzS50bA%3D%3D</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3525</t>
+  </si>
+  <si>
+    <t>H2 H6 H7 H11</t>
   </si>
   <si>
     <t>M3x0.50x6</t>
@@ -226,6 +247,9 @@
     <t>Machine screw, M3x0.50x6</t>
   </si>
   <si>
+    <t>H4 H9</t>
+  </si>
+  <si>
     <t>11mm_M3x0.50</t>
   </si>
   <si>
@@ -253,25 +277,13 @@
     <t>https://www.mouser.ca/ProductDetail/Wurth-Elektronik/970110321?qs=wr8lucFkNMUs0IWSCWTB3w%3D%3D</t>
   </si>
   <si>
-    <t>Jumper_2</t>
-  </si>
-  <si>
-    <t>Jumper connector, 2-pin socket</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/datasheet/2/209/KC-301174-1171759.pdf</t>
-  </si>
-  <si>
-    <t>151-8013-E</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Kobiconn/151-8013-E?qs=RC2ne4458IJaOh%2FxzS50bA%3D%3D</t>
-  </si>
-  <si>
-    <t>Adafruit</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/3525</t>
+    <t>144-MTS-11</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/144-MTS-11</t>
+  </si>
+  <si>
+    <t>J1 J3 J5 J7 J8</t>
   </si>
   <si>
     <t>WQP-PJ398</t>
@@ -325,6 +337,39 @@
     <t>https://www.mouser.ca/ProductDetail/Wurth-Elektronik/61201621621?qs=ZtY9WdtwX55qFf4n3EFuaA%3D%3D</t>
   </si>
   <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>Conn_PCB_Front</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x08, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/598</t>
+  </si>
+  <si>
+    <t>710-61303211821</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Wurth-Elektronik/61303211821?qs=ZtY9WdtwX55M%2FH%2FSrHZ9xA%3D%3D</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>Conn_PCB_Back</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/392</t>
+  </si>
+  <si>
+    <t>649-1012937893601BLF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/649-1012937893601BLF</t>
+  </si>
+  <si>
     <t>JP1</t>
   </si>
   <si>
@@ -334,10 +379,10 @@
     <t>Jumper pins, 3-pole, pins 1+2 closed/bridged</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>1M</t>
+    <t>R1 R19 R20 R21 R26 R27 R28 R30</t>
+  </si>
+  <si>
+    <t>100K</t>
   </si>
   <si>
     <t>1%, 1/6 W</t>
@@ -352,37 +397,43 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>MFR-12*</t>
-  </si>
-  <si>
-    <t>603-MFR-12*</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/c/?m=YAGEO&amp;power+rating=166+mW+(1%2f6+W)&amp;tolerance=1+%25&amp;instock=y</t>
+    <t>MFR-12FTF52-100K</t>
+  </si>
+  <si>
+    <t>603-MFR-12FTF52-100K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-100K?qs=sGAEpiMZZMsPqMdJzcrNwiweiCzxKzWL3GVOiMccmLA%3D</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>24K (15K?)</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>16K</t>
-  </si>
-  <si>
-    <t>Q comp.</t>
-  </si>
-  <si>
-    <t>MFR-12FTF52-16K</t>
-  </si>
-  <si>
-    <t>603-MFR-12FTF52-16K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-16K?qs=oAGoVhmvjhx15wIhq7XW0w%3D%3D</t>
+    <t>36K</t>
+  </si>
+  <si>
+    <t>MFR-12FTF52-36K</t>
+  </si>
+  <si>
+    <t>603-MFR-12FTF52-36K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-36K?qs=oAGoVhmvjhyIq6EO5blb%252BQ%3D%3D</t>
+  </si>
+  <si>
+    <t>R3 R23</t>
+  </si>
+  <si>
+    <t>30K</t>
+  </si>
+  <si>
+    <t>MFR-12FTF52-30K</t>
+  </si>
+  <si>
+    <t>603-MFR-12FTF52-30K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-30K?qs=oAGoVhmvjhx41C7LP55%2FiQ%3D%3D</t>
   </si>
   <si>
     <t>R4</t>
@@ -391,57 +442,105 @@
     <t>1K</t>
   </si>
   <si>
+    <t>MFR-12FTF52-1K</t>
+  </si>
+  <si>
+    <t>603-MFR-12FTF52-1K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-1K?qs=sGAEpiMZZMsPqMdJzcrNwiweiCzxKzWLdWnxGD01wS0%3D</t>
+  </si>
+  <si>
     <t>R5 R7 R8 R10 R11 R13 R14 R16</t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
+    <t>MFR-12FRF52-10K</t>
+  </si>
+  <si>
+    <t>603-MFR-12FRF5210K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FRF52-10K?qs=sGAEpiMZZMsPqMdJzcrNwl7IR%2FWPk8YP7c4XT%2Fr88hQ%3D</t>
+  </si>
+  <si>
     <t>R6 R9 R12 R15</t>
   </si>
   <si>
     <t>200R</t>
   </si>
   <si>
-    <t>R17 R18 R20 R21 R23 R24</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R19 R27</t>
-  </si>
-  <si>
-    <t>120K</t>
+    <t>MFR-12FTF52-200R</t>
+  </si>
+  <si>
+    <t>603-MFR-12FTF52-200R</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-200R?qs=sGAEpiMZZMsPqMdJzcrNwiweiCzxKzWL4vilHjFZgRM%3D</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>240K</t>
+  </si>
+  <si>
+    <t>MFR-12FTF52-240K</t>
+  </si>
+  <si>
+    <t>603-MFR-12FTF52-240K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-240K?qs=oAGoVhmvjhw1AcZeqwH5DQ%3D%3D</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>MFR-12FTF52-200K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-200K?qs=oAGoVhmvjhzyXGTT6oqbfw%3D%3D</t>
   </si>
   <si>
     <t>R22</t>
   </si>
   <si>
-    <t>158K</t>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>MFR-12FTF52-20K</t>
+  </si>
+  <si>
+    <t>603-MFR-12FTF52-20K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-20K?qs=sGAEpiMZZMsPqMdJzcrNwiweiCzxKzWL3Dli7pqtTkM%3D</t>
+  </si>
+  <si>
+    <t>R24 R29</t>
+  </si>
+  <si>
+    <t>160K</t>
+  </si>
+  <si>
+    <t>MFR-12FTF52-160K</t>
+  </si>
+  <si>
+    <t>603-MFR-12FTF52-160K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-160K?qs=oAGoVhmvjhxIfkmV03b2Vg%3D%3D</t>
   </si>
   <si>
     <t>R25</t>
   </si>
   <si>
-    <t>53K</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>30K</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
     <t>5%, 1/4 W</t>
   </si>
   <si>
@@ -463,42 +562,63 @@
     <t>https://www.mouser.ca/ProductDetail/Vishay-Dale/CCF071K00JKE36?qs=sGAEpiMZZMsPqMdJzcrNwqw41JD0NFylHV1MADcQnpo%3D</t>
   </si>
   <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>47K</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>MFR-12FTF52-47K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-47K?qs=oAGoVhmvjhylO%2Fy0ChGYrw%3D%3D</t>
+  </si>
+  <si>
+    <t>RV1</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/datasheet/2/13/alpha_taiwan_08192019_RD901F-40-15R1-B(resistance_-1627810.pdf</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>RD901F-*</t>
+  </si>
+  <si>
+    <t>Group_Pot_Alpha_6.35mm</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/alpha-9mm-pots/</t>
+  </si>
+  <si>
+    <t>311-1940F-*</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/c/passive-components/potentiometers-trimmers-rheostats/potentiometers/?q=RD901F&amp;orientation=Vertical</t>
+  </si>
+  <si>
+    <t>9MMALPHAPOTMSTR</t>
+  </si>
+  <si>
+    <t>https://synthcube.com/cart/alpha-9mm-potentiometer-right-angle-pcb-mount-6-35mm-round-shaft</t>
+  </si>
+  <si>
+    <t>RV2 RV8</t>
+  </si>
+  <si>
     <t>LIN</t>
   </si>
   <si>
-    <t>Potentiometer</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/datasheet/2/13/alpha_taiwan_08192019_RD901F-40-15R1-B(resistance_-1627810.pdf</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>RD901F-*</t>
-  </si>
-  <si>
-    <t>Group_Pot_Alpha_6.35mm</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/alpha-9mm-pots/</t>
-  </si>
-  <si>
-    <t>311-1940F-*</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/c/passive-components/potentiometers-trimmers-rheostats/potentiometers/?q=RD901F&amp;orientation=Vertical</t>
-  </si>
-  <si>
-    <t>9MMALPHAPOTMSTR</t>
-  </si>
-  <si>
-    <t>https://synthcube.com/cart/alpha-9mm-potentiometer-right-angle-pcb-mount-6-35mm-round-shaft</t>
-  </si>
-  <si>
-    <t>LOG</t>
-  </si>
-  <si>
     <t>http://www.song-huei.com/proimages//eng/pdfimages/R0904N.pdf</t>
   </si>
   <si>
@@ -520,12 +640,12 @@
     <t>https://www.thonk.co.uk/shop/ttpots/</t>
   </si>
   <si>
+    <t>RV7</t>
+  </si>
+  <si>
     <t>RV9 RV10</t>
   </si>
   <si>
-    <t>5K</t>
-  </si>
-  <si>
     <t>Trim-potentiometer</t>
   </si>
   <si>
@@ -535,13 +655,13 @@
     <t>Bourns</t>
   </si>
   <si>
-    <t>3296W-*</t>
-  </si>
-  <si>
-    <t>652-3296W-*</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/c/passive-components/potentiometers-trimmers-rheostats/trimmer-resistors-through-hole/?adjustment=Top+Slot&amp;m=Bourns&amp;series=3296</t>
+    <t>3296P-1-103LF</t>
+  </si>
+  <si>
+    <t>652-3296P-1-103LF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Bourns/3296P-1-103LF?qs=KEpVMF%252BFc%2F%252BT2YBdba03BQ%3D%3D</t>
   </si>
   <si>
     <t>U1</t>
@@ -562,19 +682,19 @@
     <t>Sound Semiconductor</t>
   </si>
   <si>
-    <t>DAB2140</t>
-  </si>
-  <si>
     <t>Antique Electronic Supply</t>
   </si>
   <si>
-    <t>P-Q-SSIDAB2140</t>
-  </si>
-  <si>
-    <t>https://www.tubesandmore.com/products/integrated-circuit-dab2140-multi-mode-vcf-sound-semiconductor</t>
-  </si>
-  <si>
-    <t>SSI2140DAB</t>
+    <t>P-Q-SSI2140</t>
+  </si>
+  <si>
+    <t>https://www.tubesandmore.com/products/integrated-circuit-ssi2140-multi-mode-vcf-sound-semiconductor</t>
+  </si>
+  <si>
+    <t>ICSMSSI2140</t>
+  </si>
+  <si>
+    <t>https://synthcube.com/cart/ics-and-semiconductors/sound-semiconductor-ssi2140-quad-vcf-ic-ssop20-smt</t>
   </si>
   <si>
     <t>https://www.thonk.co.uk/shop/sound-semiconductor/</t>
@@ -604,6 +724,27 @@
     <t>https://www.mouser.ca/ProductDetail/?qs=vxEfx8VrU7BHurOY5iQdiA%3D%3D</t>
   </si>
   <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>TL072</t>
+  </si>
+  <si>
+    <t>Dual Low-Noise JFET-Input Operational Amplifiers, DIP-8/SOIC-8</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tl072b.pdf?ts=1628812694194</t>
+  </si>
+  <si>
+    <t>TL072BCP</t>
+  </si>
+  <si>
+    <t>595-TL072BCP</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/TL072BCP?qs=p6YqzpSxLIxmo8AyZLsP4g%3D%3D</t>
+  </si>
+  <si>
     <t>Have</t>
   </si>
   <si>
@@ -613,68 +754,14 @@
     <t>Need</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Delptronics_MCS_10HP</t>
-  </si>
-  <si>
-    <t>PCB &amp; panel kit</t>
-  </si>
-  <si>
-    <t>Delptronics Module Construction Set - 10HP PCB &amp; panel kit</t>
-  </si>
-  <si>
-    <t>https://delptronics.com/module-construction-set.php</t>
-  </si>
-  <si>
-    <t>Delptronics</t>
-  </si>
-  <si>
-    <t>synthCube</t>
-  </si>
-  <si>
-    <t>DELPMCSMSTR</t>
-  </si>
-  <si>
-    <t>https://synthcube.com/cart/delptronics-module-construction-set</t>
-  </si>
-  <si>
-    <t>https://modularaddict.com/module-construction-set-eurorack-prototype-development-platform-delptronics</t>
-  </si>
-  <si>
-    <t>H3 H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>J1 J3 J5 J7 J8</t>
-  </si>
-  <si>
-    <t>RV1 RV7</t>
-  </si>
-  <si>
-    <t>RV2 RV8</t>
-  </si>
-  <si>
-    <t>RV4</t>
-  </si>
-  <si>
-    <t>C3 C4</t>
-  </si>
-  <si>
-    <t>OUT OF DATE!</t>
+    <t>603-MFR-12FTF52-200K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,6 +896,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1107,7 +1202,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1150,13 +1245,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="14"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1190,6 +1286,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1520,17 +1617,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:B34"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="4.42578125" customWidth="1"/>
+    <col min="2" max="5" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1541,13 +1637,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1605,12 +1701,9 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <f>MAX(0,B2-C2-D2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1647,17 +1740,14 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <f t="shared" ref="E3:E33" si="0">MAX(0,B3-C3-D3)</f>
         <v>2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E32" si="0">MAX(0,B3-C3-D3)</f>
-        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
       <c r="I3" t="s">
@@ -1681,77 +1771,77 @@
       <c r="O3" t="s">
         <v>37</v>
       </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
         <v>4</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
         <v>52</v>
@@ -1771,409 +1861,391 @@
         <v>55</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
         <v>56</v>
       </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="E7">
-        <f>MAX(0,B7-C7-D7)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q7">
         <v>3525</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <f>MAX(0,B8-C8-D8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M8" t="s">
-        <v>199</v>
-      </c>
-      <c r="O8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P8" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>201</v>
-      </c>
-      <c r="R8" t="s">
-        <v>202</v>
-      </c>
-      <c r="S8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" t="s">
         <v>70</v>
       </c>
-      <c r="P10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" t="s">
-        <v>72</v>
+      <c r="T10">
+        <v>4031</v>
+      </c>
+      <c r="U10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="L11">
+        <v>61201621621</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>87</v>
-      </c>
-      <c r="R11" t="s">
-        <v>88</v>
-      </c>
-      <c r="S11" t="s">
-        <v>78</v>
-      </c>
-      <c r="T11">
-        <v>4031</v>
-      </c>
-      <c r="U11" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
         <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12">
-        <v>61201621621</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12">
+        <v>598</v>
+      </c>
+      <c r="O12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" t="s">
         <v>35</v>
       </c>
-      <c r="N12" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
+      <c r="Q12" t="s">
+        <v>109</v>
+      </c>
+      <c r="R12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
         <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13">
+        <v>392</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>114</v>
+      </c>
+      <c r="R13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
         <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>392</v>
+      </c>
+      <c r="O14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" t="s">
         <v>35</v>
       </c>
-      <c r="N14" t="s">
-        <v>107</v>
-      </c>
-      <c r="O14" t="s">
-        <v>108</v>
+      <c r="Q14" t="s">
+        <v>114</v>
+      </c>
+      <c r="R14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="M15" t="s">
         <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2183,285 +2255,270 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="M16" t="s">
         <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" t="s">
         <v>122</v>
       </c>
-      <c r="G19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" t="s">
-        <v>103</v>
-      </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s">
         <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="O19" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" t="s">
         <v>124</v>
       </c>
-      <c r="G20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" t="s">
-        <v>105</v>
-      </c>
       <c r="L20" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>
       </c>
       <c r="N20" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="O20" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="M21" t="s">
         <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B22">
         <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s">
         <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="O22" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2471,486 +2528,495 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s">
         <v>35</v>
       </c>
       <c r="N23" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="O23" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s">
         <v>35</v>
       </c>
       <c r="N24" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="O24" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
         <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>173</v>
+      </c>
+      <c r="H25" t="s">
+        <v>174</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="O25" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
         <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="M26" t="s">
         <v>35</v>
       </c>
-      <c r="N26" t="s">
-        <v>141</v>
-      </c>
       <c r="O26" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s">
         <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="R27" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="S27" t="s">
         <v>24</v>
       </c>
       <c r="T27" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="U27" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E28">
-        <f>MAX(0,B28-C28-D28)</f>
-        <v>0</v>
-      </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="I28" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="K28" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s">
         <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="P28" t="s">
         <v>22</v>
       </c>
       <c r="Q28" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="R28" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="S28" t="s">
         <v>24</v>
       </c>
       <c r="T28" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="U28" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
         <v>1</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="I29" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="J29" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="L29" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="M29" t="s">
         <v>22</v>
       </c>
       <c r="N29" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="O29" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="P29" t="s">
         <v>35</v>
       </c>
       <c r="Q29" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="R29" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
       </c>
       <c r="T29" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="U29" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s">
         <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
         <v>1</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="J31" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="M31" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="N31" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="O31" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>223</v>
+      </c>
+      <c r="R31" t="s">
+        <v>224</v>
+      </c>
+      <c r="S31" t="s">
         <v>22</v>
       </c>
-      <c r="Q31" t="s">
-        <v>180</v>
-      </c>
-      <c r="R31" t="s">
-        <v>181</v>
+      <c r="U31" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
         <v>1</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="I32" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="J32" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s">
         <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="O32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E32">
+  <conditionalFormatting sqref="E2:E33">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="U9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{56B42A8A-DB25-4E5C-857A-87D576F35E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6A8E95-4068-4341-A819-66AAF1DA26F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="1395" windowWidth="19395" windowHeight="11685"/>
+    <workbookView xWindow="4935" yWindow="1275" windowWidth="19395" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="246">
   <si>
     <t>Ref</t>
   </si>
@@ -169,9 +181,6 @@
     <t>C7</t>
   </si>
   <si>
-    <t>NPE</t>
-  </si>
-  <si>
     <t>Capacitor - Non-polarized Electrolytic</t>
   </si>
   <si>
@@ -755,12 +764,18 @@
   </si>
   <si>
     <t>603-MFR-12FTF52-200K</t>
+  </si>
+  <si>
+    <t>Non-polarized</t>
+  </si>
+  <si>
+    <t>DAB2140</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1617,11 +1632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1701,9 +1716,12 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="E2">
         <f>MAX(0,B2-C2-D2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1740,9 +1758,12 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="E3">
         <f t="shared" ref="E3:E33" si="0">MAX(0,B3-C3-D3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1785,9 +1806,12 @@
       <c r="B4">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1824,41 +1848,44 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
       </c>
       <c r="K5" t="s">
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1868,220 +1895,235 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
         <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
         <v>65</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>66</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
       </c>
       <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>69</v>
-      </c>
-      <c r="P7" t="s">
-        <v>70</v>
       </c>
       <c r="Q7">
         <v>3525</v>
       </c>
       <c r="R7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
         <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
         <v>76</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>77</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>78</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>79</v>
-      </c>
-      <c r="L9" t="s">
-        <v>80</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
         <v>81</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
       </c>
       <c r="P9" t="s">
         <v>35</v>
       </c>
       <c r="Q9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" t="s">
         <v>83</v>
-      </c>
-      <c r="R9" t="s">
-        <v>84</v>
       </c>
       <c r="S9" t="s">
         <v>35</v>
       </c>
       <c r="T9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
         <v>88</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>89</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>90</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>91</v>
-      </c>
-      <c r="L10" t="s">
-        <v>92</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
         <v>93</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
       </c>
       <c r="P10" t="s">
         <v>24</v>
       </c>
       <c r="Q10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" t="s">
         <v>95</v>
       </c>
-      <c r="R10" t="s">
-        <v>96</v>
-      </c>
       <c r="S10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T10">
         <v>4031</v>
       </c>
       <c r="U10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
         <v>99</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>101</v>
-      </c>
-      <c r="K11" t="s">
-        <v>102</v>
       </c>
       <c r="L11">
         <v>61201621621</v>
@@ -2090,240 +2132,258 @@
         <v>35</v>
       </c>
       <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
         <v>103</v>
-      </c>
-      <c r="O11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" t="s">
         <v>106</v>
       </c>
-      <c r="I12" t="s">
-        <v>107</v>
-      </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N12">
         <v>598</v>
       </c>
       <c r="O12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P12" t="s">
         <v>35</v>
       </c>
       <c r="Q12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" t="s">
         <v>109</v>
-      </c>
-      <c r="R12" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>392</v>
       </c>
       <c r="O13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P13" t="s">
         <v>35</v>
       </c>
       <c r="Q13" t="s">
+        <v>113</v>
+      </c>
+      <c r="R13" t="s">
         <v>114</v>
-      </c>
-      <c r="R13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" t="s">
         <v>117</v>
       </c>
-      <c r="I14" t="s">
-        <v>118</v>
-      </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>392</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P14" t="s">
         <v>35</v>
       </c>
       <c r="Q14" t="s">
+        <v>113</v>
+      </c>
+      <c r="R14" t="s">
         <v>114</v>
-      </c>
-      <c r="R14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15">
         <v>8</v>
       </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
         <v>120</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>121</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>122</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>123</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>124</v>
-      </c>
-      <c r="L15" t="s">
-        <v>125</v>
       </c>
       <c r="M15" t="s">
         <v>35</v>
       </c>
       <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
         <v>126</v>
-      </c>
-      <c r="O15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s">
         <v>129</v>
-      </c>
-      <c r="G16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" t="s">
-        <v>130</v>
       </c>
       <c r="M16" t="s">
         <v>35</v>
       </c>
       <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
         <v>131</v>
-      </c>
-      <c r="O16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" t="s">
         <v>134</v>
-      </c>
-      <c r="G17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" t="s">
-        <v>135</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
       </c>
       <c r="N17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" t="s">
         <v>136</v>
-      </c>
-      <c r="O17" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2333,75 +2393,78 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" t="s">
         <v>139</v>
-      </c>
-      <c r="G18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" t="s">
-        <v>140</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
       </c>
       <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
         <v>141</v>
-      </c>
-      <c r="O18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19">
         <v>8</v>
       </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" t="s">
         <v>144</v>
-      </c>
-      <c r="G19" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" t="s">
-        <v>145</v>
       </c>
       <c r="M19" t="s">
         <v>35</v>
       </c>
       <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" t="s">
         <v>146</v>
-      </c>
-      <c r="O19" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -2411,36 +2474,36 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" t="s">
         <v>149</v>
-      </c>
-      <c r="G20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" t="s">
-        <v>150</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>
       </c>
       <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
         <v>151</v>
-      </c>
-      <c r="O20" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2450,405 +2513,429 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" t="s">
         <v>154</v>
-      </c>
-      <c r="G21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" t="s">
-        <v>155</v>
       </c>
       <c r="M21" t="s">
         <v>35</v>
       </c>
       <c r="N21" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" t="s">
         <v>156</v>
-      </c>
-      <c r="O21" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" t="s">
         <v>159</v>
-      </c>
-      <c r="G22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" t="s">
-        <v>160</v>
       </c>
       <c r="M22" t="s">
         <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" t="s">
         <v>163</v>
-      </c>
-      <c r="G23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" t="s">
-        <v>164</v>
       </c>
       <c r="M23" t="s">
         <v>35</v>
       </c>
       <c r="N23" t="s">
+        <v>164</v>
+      </c>
+      <c r="O23" t="s">
         <v>165</v>
-      </c>
-      <c r="O23" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" t="s">
-        <v>122</v>
-      </c>
-      <c r="J24" t="s">
-        <v>123</v>
-      </c>
-      <c r="K24" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" t="s">
-        <v>169</v>
       </c>
       <c r="M24" t="s">
         <v>35</v>
       </c>
       <c r="N24" t="s">
+        <v>169</v>
+      </c>
+      <c r="O24" t="s">
         <v>170</v>
-      </c>
-      <c r="O24" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" t="s">
         <v>173</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" t="s">
         <v>174</v>
       </c>
-      <c r="I25" t="s">
-        <v>122</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>175</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" t="s">
-        <v>177</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
       </c>
       <c r="N25" t="s">
+        <v>177</v>
+      </c>
+      <c r="O25" t="s">
         <v>178</v>
-      </c>
-      <c r="O25" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" t="s">
         <v>181</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>121</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" t="s">
         <v>182</v>
-      </c>
-      <c r="I26" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" t="s">
-        <v>124</v>
-      </c>
-      <c r="L26" t="s">
-        <v>183</v>
       </c>
       <c r="M26" t="s">
         <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" t="s">
         <v>186</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>187</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>188</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" t="s">
-        <v>190</v>
       </c>
       <c r="M27" t="s">
         <v>22</v>
       </c>
       <c r="N27" t="s">
+        <v>190</v>
+      </c>
+      <c r="O27" t="s">
         <v>191</v>
-      </c>
-      <c r="O27" t="s">
-        <v>192</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
       </c>
       <c r="Q27" t="s">
+        <v>192</v>
+      </c>
+      <c r="R27" t="s">
         <v>193</v>
-      </c>
-      <c r="R27" t="s">
-        <v>194</v>
       </c>
       <c r="S27" t="s">
         <v>24</v>
       </c>
       <c r="T27" t="s">
+        <v>194</v>
+      </c>
+      <c r="U27" t="s">
         <v>195</v>
-      </c>
-      <c r="U27" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s">
         <v>198</v>
       </c>
-      <c r="I28" t="s">
-        <v>187</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>199</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>200</v>
-      </c>
-      <c r="L28" t="s">
-        <v>201</v>
       </c>
       <c r="M28" t="s">
         <v>24</v>
       </c>
       <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
         <v>202</v>
-      </c>
-      <c r="O28" t="s">
-        <v>203</v>
       </c>
       <c r="P28" t="s">
         <v>22</v>
       </c>
       <c r="Q28" t="s">
+        <v>203</v>
+      </c>
+      <c r="R28" t="s">
         <v>204</v>
-      </c>
-      <c r="R28" t="s">
-        <v>205</v>
       </c>
       <c r="S28" t="s">
         <v>24</v>
       </c>
       <c r="T28" t="s">
+        <v>194</v>
+      </c>
+      <c r="U28" t="s">
         <v>195</v>
-      </c>
-      <c r="U28" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" t="s">
         <v>187</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>188</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>189</v>
-      </c>
-      <c r="L29" t="s">
-        <v>190</v>
       </c>
       <c r="M29" t="s">
         <v>22</v>
       </c>
       <c r="N29" t="s">
+        <v>190</v>
+      </c>
+      <c r="O29" t="s">
         <v>191</v>
-      </c>
-      <c r="O29" t="s">
-        <v>192</v>
       </c>
       <c r="P29" t="s">
         <v>35</v>
       </c>
       <c r="Q29" t="s">
+        <v>192</v>
+      </c>
+      <c r="R29" t="s">
         <v>193</v>
-      </c>
-      <c r="R29" t="s">
-        <v>194</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
       </c>
       <c r="T29" t="s">
+        <v>194</v>
+      </c>
+      <c r="U29" t="s">
         <v>195</v>
-      </c>
-      <c r="U29" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2858,154 +2945,163 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" t="s">
         <v>208</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>209</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>210</v>
-      </c>
-      <c r="L30" t="s">
-        <v>211</v>
       </c>
       <c r="M30" t="s">
         <v>35</v>
       </c>
       <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
         <v>212</v>
-      </c>
-      <c r="O30" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>216</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>217</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>218</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" t="s">
         <v>219</v>
       </c>
-      <c r="L31" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>220</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>221</v>
-      </c>
-      <c r="O31" t="s">
-        <v>222</v>
       </c>
       <c r="P31" t="s">
         <v>24</v>
       </c>
       <c r="Q31" t="s">
+        <v>222</v>
+      </c>
+      <c r="R31" t="s">
         <v>223</v>
-      </c>
-      <c r="R31" t="s">
-        <v>224</v>
       </c>
       <c r="S31" t="s">
         <v>22</v>
       </c>
       <c r="U31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" t="s">
         <v>227</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>228</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>229</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>230</v>
-      </c>
-      <c r="L32" t="s">
-        <v>231</v>
       </c>
       <c r="M32" t="s">
         <v>35</v>
       </c>
       <c r="N32" t="s">
+        <v>231</v>
+      </c>
+      <c r="O32" t="s">
         <v>232</v>
-      </c>
-      <c r="O32" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="I33" t="s">
         <v>235</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>236</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" t="s">
         <v>237</v>
-      </c>
-      <c r="K33" t="s">
-        <v>230</v>
-      </c>
-      <c r="L33" t="s">
-        <v>238</v>
       </c>
       <c r="M33" t="s">
         <v>35</v>
       </c>
       <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s">
         <v>239</v>
-      </c>
-      <c r="O33" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +3111,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="U9" r:id="rId1"/>
+    <hyperlink ref="U9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6A8E95-4068-4341-A819-66AAF1DA26F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF889D-BC87-49C2-8ED9-5861741A64B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="1275" windowWidth="19395" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="2505" windowWidth="19395" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="250">
   <si>
     <t>Ref</t>
   </si>
@@ -430,9 +430,6 @@
     <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-36K?qs=oAGoVhmvjhyIq6EO5blb%252BQ%3D%3D</t>
   </si>
   <si>
-    <t>R3 R23</t>
-  </si>
-  <si>
     <t>30K</t>
   </si>
   <si>
@@ -770,6 +767,21 @@
   </si>
   <si>
     <t>DAB2140</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>24K</t>
+  </si>
+  <si>
+    <t>MFR-12FTF52-24K</t>
+  </si>
+  <si>
+    <t>603-MFR-12FTF52-24K</t>
   </si>
 </sst>
 </file>
@@ -1633,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,13 +1664,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1762,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E33" si="0">MAX(0,B3-C3-D3)</f>
+        <f t="shared" ref="E3:E34" si="0">MAX(0,B3-C3-D3)</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -1859,7 +1871,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -2341,20 +2353,20 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G17" t="s">
         <v>120</v>
@@ -2369,21 +2381,19 @@
         <v>123</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" t="s">
-        <v>136</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2393,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
         <v>120</v>
@@ -2408,21 +2418,21 @@
         <v>123</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
       </c>
       <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
         <v>140</v>
-      </c>
-      <c r="O18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -2435,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
         <v>120</v>
@@ -2450,31 +2460,34 @@
         <v>123</v>
       </c>
       <c r="L19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s">
         <v>35</v>
       </c>
       <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
         <v>145</v>
-      </c>
-      <c r="O19" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
         <v>120</v>
@@ -2489,21 +2502,21 @@
         <v>123</v>
       </c>
       <c r="L20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>
       </c>
       <c r="N20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" t="s">
         <v>150</v>
-      </c>
-      <c r="O20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2513,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
         <v>120</v>
@@ -2528,21 +2541,21 @@
         <v>123</v>
       </c>
       <c r="L21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M21" t="s">
         <v>35</v>
       </c>
       <c r="N21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" t="s">
         <v>155</v>
-      </c>
-      <c r="O21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2555,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
         <v>120</v>
@@ -2570,21 +2583,21 @@
         <v>123</v>
       </c>
       <c r="L22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s">
         <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2597,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
         <v>120</v>
@@ -2612,34 +2625,34 @@
         <v>123</v>
       </c>
       <c r="L23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M23" t="s">
         <v>35</v>
       </c>
       <c r="N23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" t="s">
         <v>164</v>
-      </c>
-      <c r="O23" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E24" si="1">MAX(0,B24-C24-D24)</f>
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
         <v>120</v>
@@ -2654,66 +2667,63 @@
         <v>123</v>
       </c>
       <c r="L24" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s">
         <v>35</v>
       </c>
       <c r="N24" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="O24" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="I25" t="s">
         <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="L25" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O25" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2726,36 +2736,39 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="H26" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I26" t="s">
         <v>121</v>
       </c>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M26" t="s">
         <v>35</v>
       </c>
+      <c r="N26" t="s">
+        <v>176</v>
+      </c>
       <c r="O26" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2768,60 +2781,42 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>180</v>
       </c>
       <c r="I27" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="J27" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="L27" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="O27" t="s">
-        <v>191</v>
-      </c>
-      <c r="P27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R27" t="s">
-        <v>193</v>
-      </c>
-      <c r="S27" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" t="s">
-        <v>194</v>
-      </c>
-      <c r="U27" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
@@ -2831,57 +2826,57 @@
         <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="I28" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" t="s">
         <v>186</v>
       </c>
-      <c r="J28" t="s">
-        <v>198</v>
-      </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O28" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="P28" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="R28" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="S28" t="s">
         <v>24</v>
       </c>
       <c r="T28" t="s">
+        <v>193</v>
+      </c>
+      <c r="U28" t="s">
         <v>194</v>
-      </c>
-      <c r="U28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -2891,144 +2886,147 @@
         <v>119</v>
       </c>
       <c r="G29" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" t="s">
         <v>197</v>
       </c>
-      <c r="I29" t="s">
-        <v>186</v>
-      </c>
-      <c r="J29" t="s">
-        <v>187</v>
-      </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>200</v>
+      </c>
+      <c r="O29" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" t="s">
         <v>22</v>
       </c>
-      <c r="N29" t="s">
-        <v>190</v>
-      </c>
-      <c r="O29" t="s">
-        <v>191</v>
-      </c>
-      <c r="P29" t="s">
-        <v>35</v>
-      </c>
       <c r="Q29" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="R29" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
       </c>
       <c r="T29" t="s">
+        <v>193</v>
+      </c>
+      <c r="U29" t="s">
         <v>194</v>
-      </c>
-      <c r="U29" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>119</v>
+      </c>
+      <c r="G30" t="s">
+        <v>196</v>
       </c>
       <c r="I30" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K30" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="L30" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" t="s">
         <v>35</v>
       </c>
-      <c r="N30" t="s">
-        <v>211</v>
-      </c>
-      <c r="O30" t="s">
-        <v>212</v>
+      <c r="Q30" t="s">
+        <v>191</v>
+      </c>
+      <c r="R30" t="s">
+        <v>192</v>
+      </c>
+      <c r="S30" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" t="s">
+        <v>193</v>
+      </c>
+      <c r="U30" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J31" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="M31" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="N31" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s">
-        <v>221</v>
-      </c>
-      <c r="P31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>222</v>
-      </c>
-      <c r="R31" t="s">
-        <v>223</v>
-      </c>
-      <c r="S31" t="s">
-        <v>22</v>
-      </c>
-      <c r="U31" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3041,33 +3039,51 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
+        <v>214</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="J32" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K32" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s">
-        <v>232</v>
+        <v>220</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>221</v>
+      </c>
+      <c r="R32" t="s">
+        <v>222</v>
+      </c>
+      <c r="S32" t="s">
+        <v>22</v>
+      </c>
+      <c r="U32" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3080,32 +3096,71 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="K33" t="s">
+        <v>228</v>
+      </c>
+      <c r="L33" t="s">
         <v>229</v>
-      </c>
-      <c r="L33" t="s">
-        <v>237</v>
       </c>
       <c r="M33" t="s">
         <v>35</v>
       </c>
       <c r="N33" t="s">
+        <v>230</v>
+      </c>
+      <c r="O33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J34" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" t="s">
+        <v>236</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" t="s">
+        <v>237</v>
+      </c>
+      <c r="O34" t="s">
         <v>238</v>
       </c>
-      <c r="O33" t="s">
-        <v>239</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E33">
+  <conditionalFormatting sqref="E2:E34">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Len\Documents\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF889D-BC87-49C2-8ED9-5861741A64B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33D60A-03CD-4EAB-A835-36233565C763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="2505" windowWidth="19395" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
@@ -1648,15 +1648,15 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="5" width="4.28515625" customWidth="1"/>
+    <col min="2" max="5" width="4.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1895,16 +1895,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -1934,7 +1937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>246</v>
       </c>
@@ -2391,16 +2394,19 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>136</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>137</v>
@@ -2430,7 +2436,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -2514,16 +2520,19 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>151</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>152</v>
@@ -2553,7 +2562,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>156</v>
       </c>
@@ -2595,7 +2604,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -2637,7 +2646,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>245</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -2766,7 +2775,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -2928,7 +2937,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -2988,16 +2997,19 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>205</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>142</v>
@@ -3024,7 +3036,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>212</v>
       </c>
@@ -3081,7 +3093,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>224</v>
       </c>
@@ -3120,7 +3132,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>232</v>
       </c>

--- a/modules/VCF-4P/VCF-4P-BOM.xlsx
+++ b/modules/VCF-4P/VCF-4P-BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Len\Documents\Dev\git\Synth-priv\modules\VCF-4P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\VCF-4P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33D60A-03CD-4EAB-A835-36233565C763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DE4C50-155B-49FB-8270-4E54985247B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="1425" windowWidth="19380" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCF-4P-BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="248">
   <si>
     <t>Ref</t>
   </si>
@@ -583,12 +583,6 @@
     <t>https://www.mouser.ca/ProductDetail/YAGEO/MFR-12FTF52-47K?qs=oAGoVhmvjhylO%2Fy0ChGYrw%3D%3D</t>
   </si>
   <si>
-    <t>RV1</t>
-  </si>
-  <si>
-    <t>LOG</t>
-  </si>
-  <si>
     <t>Potentiometer</t>
   </si>
   <si>
@@ -646,9 +640,6 @@
     <t>https://www.thonk.co.uk/shop/ttpots/</t>
   </si>
   <si>
-    <t>RV7</t>
-  </si>
-  <si>
     <t>RV9 RV10</t>
   </si>
   <si>
@@ -782,6 +773,9 @@
   </si>
   <si>
     <t>603-MFR-12FTF52-24K</t>
+  </si>
+  <si>
+    <t>RV1 RV7</t>
   </si>
 </sst>
 </file>
@@ -1645,18 +1639,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="4.265625" customWidth="1"/>
+    <col min="2" max="5" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1664,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1721,7 +1715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1763,7 +1757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1774,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E34" si="0">MAX(0,B3-C3-D3)</f>
+        <f t="shared" ref="E3:E33" si="0">MAX(0,B3-C3-D3)</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -1811,7 +1805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1871,7 +1865,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -1895,7 +1889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1937,7 +1931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1979,7 +1973,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2000,7 +1994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -2057,7 +2051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2114,7 +2108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -2153,7 +2147,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -2192,7 +2186,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -2231,7 +2225,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -2270,7 +2264,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -2312,7 +2306,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -2354,9 +2348,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2369,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G17" t="s">
         <v>120</v>
@@ -2384,17 +2378,17 @@
         <v>123</v>
       </c>
       <c r="L17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -2436,7 +2430,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -2478,7 +2472,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -2520,7 +2514,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -2562,7 +2556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>156</v>
       </c>
@@ -2598,13 +2592,13 @@
         <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -2646,9 +2640,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2688,7 +2682,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -2730,7 +2724,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -2775,7 +2769,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -2817,69 +2811,69 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>MAX(0,B28-C28-D28)</f>
         <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>119</v>
       </c>
       <c r="G28" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" t="s">
         <v>184</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>185</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>186</v>
-      </c>
-      <c r="K28" t="s">
-        <v>187</v>
-      </c>
-      <c r="L28" t="s">
-        <v>188</v>
       </c>
       <c r="M28" t="s">
         <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P28" t="s">
         <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S28" t="s">
         <v>24</v>
       </c>
       <c r="T28" t="s">
+        <v>191</v>
+      </c>
+      <c r="U28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>193</v>
-      </c>
-      <c r="U28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>195</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2895,150 +2889,147 @@
         <v>119</v>
       </c>
       <c r="G29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" t="s">
         <v>196</v>
       </c>
-      <c r="I29" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>197</v>
-      </c>
-      <c r="K29" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" t="s">
-        <v>199</v>
       </c>
       <c r="M29" t="s">
         <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P29" t="s">
         <v>22</v>
       </c>
       <c r="Q29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
       </c>
       <c r="T29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="I30" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J30" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="O30" t="s">
-        <v>190</v>
-      </c>
-      <c r="P30" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>191</v>
-      </c>
-      <c r="R30" t="s">
-        <v>192</v>
-      </c>
-      <c r="S30" t="s">
-        <v>24</v>
-      </c>
-      <c r="T30" t="s">
-        <v>193</v>
-      </c>
-      <c r="U30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>210</v>
+      </c>
+      <c r="H31" t="s">
+        <v>211</v>
       </c>
       <c r="I31" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J31" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="N31" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>218</v>
+      </c>
+      <c r="R31" t="s">
+        <v>219</v>
+      </c>
+      <c r="S31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3051,51 +3042,33 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H32" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="I32" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="J32" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="O32" t="s">
-        <v>220</v>
-      </c>
-      <c r="P32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>221</v>
-      </c>
-      <c r="R32" t="s">
-        <v>222</v>
-      </c>
-      <c r="S32" t="s">
-        <v>22</v>
-      </c>
-      <c r="U32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3108,71 +3081,32 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" t="s">
         <v>225</v>
       </c>
-      <c r="I33" t="s">
-        <v>226</v>
-      </c>
-      <c r="J33" t="s">
-        <v>227</v>
-      </c>
-      <c r="K33" t="s">
-        <v>228</v>
-      </c>
       <c r="L33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M33" t="s">
         <v>35</v>
       </c>
       <c r="N33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>233</v>
-      </c>
-      <c r="I34" t="s">
-        <v>234</v>
-      </c>
-      <c r="J34" t="s">
         <v>235</v>
       </c>
-      <c r="K34" t="s">
-        <v>228</v>
-      </c>
-      <c r="L34" t="s">
-        <v>236</v>
-      </c>
-      <c r="M34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" t="s">
-        <v>237</v>
-      </c>
-      <c r="O34" t="s">
-        <v>238</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E34">
+  <conditionalFormatting sqref="E2:E33">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
